--- a/Planif_Gantt_Projet-DevSI.xlsx
+++ b/Planif_Gantt_Projet-DevSI.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <r>
       <rPr>
@@ -220,12 +220,6 @@
     <t>Tache 4</t>
   </si>
   <si>
-    <t>Tache 5</t>
-  </si>
-  <si>
-    <t>Tache 6</t>
-  </si>
-  <si>
     <t>Planif Projet DEV SI</t>
   </si>
   <si>
@@ -317,6 +311,15 @@
   </si>
   <si>
     <t>Certaines cellules ou certains styles de ce classeur contiennent une mise en forme qui n'est pas prise en charge par le format de fichier sélectionné. Ces formats seront convertis au format le plus proche disponible.</t>
+  </si>
+  <si>
+    <t>Expression du besoin</t>
+  </si>
+  <si>
+    <t>Expression des contraintes</t>
+  </si>
+  <si>
+    <t>Présentation de l'existant</t>
   </si>
 </sst>
 </file>
@@ -919,6 +922,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="68"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="68"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="8" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -927,72 +996,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="9" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="68"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="68"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="8" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1440,9 +1443,9 @@
   </sheetPr>
   <dimension ref="A2:BR93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1459,15 +1462,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:70" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="B2" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
       <c r="R2" s="17" t="s">
         <v>3</v>
       </c>
@@ -1482,13 +1485,13 @@
       </c>
     </row>
     <row r="3" spans="1:70" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
       <c r="J3" s="7" t="s">
         <v>2</v>
       </c>
@@ -1519,13 +1522,13 @@
       </c>
     </row>
     <row r="4" spans="1:70" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
@@ -1535,18 +1538,18 @@
     <row r="5" spans="1:70" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A5" s="26"/>
       <c r="B5" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="39"/>
-      <c r="E5" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="E5" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
       <c r="I5" s="40"/>
       <c r="AU5" s="1"/>
       <c r="AV5" s="1"/>
@@ -1554,10 +1557,10 @@
     </row>
     <row r="6" spans="1:70" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="18"/>
@@ -1573,10 +1576,10 @@
     </row>
     <row r="7" spans="1:70" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="18"/>
@@ -1592,10 +1595,10 @@
     </row>
     <row r="8" spans="1:70" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1629,103 +1632,103 @@
         <v>11</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="44">
+      <c r="J9" s="41">
         <v>7</v>
       </c>
-      <c r="K9" s="45">
+      <c r="K9" s="42">
         <f>J9+1</f>
         <v>8</v>
       </c>
-      <c r="L9" s="45">
-        <f t="shared" ref="L9:BA9" si="0">K9+1</f>
+      <c r="L9" s="42">
+        <f t="shared" ref="L9:AA9" si="0">K9+1</f>
         <v>9</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="42">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="42">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="O9" s="45">
+      <c r="O9" s="42">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="42">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="Q9" s="45">
+      <c r="Q9" s="42">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="R9" s="45">
+      <c r="R9" s="42">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="S9" s="45">
+      <c r="S9" s="42">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="T9" s="45">
+      <c r="T9" s="42">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="U9" s="45">
+      <c r="U9" s="42">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="V9" s="45">
+      <c r="V9" s="42">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="W9" s="45">
+      <c r="W9" s="42">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="X9" s="45">
+      <c r="X9" s="42">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="Y9" s="45">
+      <c r="Y9" s="42">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="Z9" s="45">
+      <c r="Z9" s="42">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AA9" s="45">
+      <c r="AA9" s="42">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="42"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="42"/>
+      <c r="AX9" s="42"/>
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="42"/>
+      <c r="BA9" s="42"/>
     </row>
     <row r="10" spans="1:70" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="21" t="s">
@@ -1934,7 +1937,7 @@
     </row>
     <row r="11" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="34">
@@ -1953,16 +1956,16 @@
     </row>
     <row r="12" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="38" t="s">
         <v>17</v>
@@ -1972,7 +1975,7 @@
     </row>
     <row r="13" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="37" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="38" t="s">
@@ -1987,7 +1990,7 @@
     </row>
     <row r="14" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="37" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="38" t="s">
@@ -2002,7 +2005,7 @@
     </row>
     <row r="15" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="37" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="38" t="s">
@@ -2016,9 +2019,7 @@
       <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:70" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37" t="s">
-        <v>24</v>
-      </c>
+      <c r="B16" s="37"/>
       <c r="C16" s="19"/>
       <c r="D16" s="38" t="s">
         <v>16</v>
@@ -2031,9 +2032,7 @@
       <c r="H16" s="15"/>
     </row>
     <row r="17" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="37" t="s">
-        <v>25</v>
-      </c>
+      <c r="B17" s="37"/>
       <c r="C17" s="19"/>
       <c r="D17" s="38" t="s">
         <v>16</v>
@@ -2056,7 +2055,7 @@
     </row>
     <row r="19" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="34">
@@ -2137,7 +2136,7 @@
     </row>
     <row r="24" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="34">
@@ -2172,7 +2171,7 @@
     </row>
     <row r="27" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="34">
@@ -2873,175 +2872,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B4" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-    </row>
-    <row r="4" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-    </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+      <c r="F6" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55" t="s">
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54">
+        <v>1</v>
+      </c>
+      <c r="F8" s="55"/>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-    </row>
-    <row r="8" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
+      <c r="F9" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57">
-        <v>1</v>
-      </c>
-      <c r="F8" s="58"/>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60" t="s">
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+    </row>
+    <row r="11" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54">
+        <v>10</v>
+      </c>
+      <c r="F11" s="55"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="49"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="59" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-    </row>
-    <row r="11" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="s">
+      <c r="F12" s="60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57">
-        <v>10</v>
-      </c>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="52"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="62" t="s">
+      <c r="F13" s="58"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="63" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+    </row>
+    <row r="18" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="61"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-    </row>
-    <row r="18" spans="2:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64">
+      <c r="C18" s="51"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61">
         <v>38</v>
       </c>
-      <c r="F18" s="65" t="s">
-        <v>51</v>
+      <c r="F18" s="62" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
     </row>
   </sheetData>
   <hyperlinks>
